--- a/Params.xlsx
+++ b/Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Python\Param_Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849F6F6-D2F7-4E63-ADC0-9DA0DF81BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D3196-22A1-4CF1-9351-1EE99311425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="16" xr2:uid="{B7A7506C-805A-48E5-8C8E-1FC4B1C38517}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{B7A7506C-805A-48E5-8C8E-1FC4B1C38517}"/>
   </bookViews>
   <sheets>
     <sheet name="Main System Params" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>ip1</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>Выходные регистры</t>
+  </si>
+  <si>
+    <t>Допустимык типы:</t>
+  </si>
+  <si>
+    <t>с</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,88 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1106,14 +1193,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="3" customWidth="1"/>
@@ -1128,11 +1215,18 @@
       <c r="B1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1246,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -1264,16 +1358,29 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="B3:B8">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{B4256E80-1E2E-4654-B2B0-5B9E0330E32A}">
+      <formula1>$F$1:$G$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8185289-02D7-44EF-A320-6BFC1CAE68BE}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,11 +1402,18 @@
       <c r="B1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1362,8 +1476,8 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f>F3+1</f>
-        <v>4001</v>
+        <f>F3+2</f>
+        <v>4002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1383,8 +1497,8 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F7" si="0">F4+1</f>
-        <v>4002</v>
+        <f t="shared" ref="F5:F28" si="0">F4+2</f>
+        <v>4004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1405,7 +1519,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>4003</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,11 +1540,465 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>4004</v>
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>4050</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="B3:B35">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{3401092E-FCFE-49F1-A1D9-DDA251E5E568}">
+      <formula1>$F$1:$G$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1572,7 +2140,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,8 +2162,15 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1722,7 +2297,23 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{FBF04453-E9A7-4A76-9C03-54E6D3D3D5B2}">
+      <formula1>$F$1:$G$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1731,7 +2322,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,8 +2344,15 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1784,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1881,6 +2479,21 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{0EECDD1A-E2A8-479A-8CD1-6C2A53664F6C}">
+      <formula1>$F$1:$G$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1889,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5142A0-13D3-4358-B0B4-4DBE8F8E962E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Python\Param_Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D3196-22A1-4CF1-9351-1EE99311425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2219240-3373-4C91-AE17-86D138CD0ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{B7A7506C-805A-48E5-8C8E-1FC4B1C38517}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="7" xr2:uid="{B7A7506C-805A-48E5-8C8E-1FC4B1C38517}"/>
   </bookViews>
   <sheets>
     <sheet name="Main System Params" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="290">
   <si>
     <t>ip1</t>
   </si>
@@ -322,13 +322,610 @@
   </si>
   <si>
     <t>с</t>
+  </si>
+  <si>
+    <t>PIU1_unlink</t>
+  </si>
+  <si>
+    <t>PIU2_unlink</t>
+  </si>
+  <si>
+    <t>PN1_ON_CMD</t>
+  </si>
+  <si>
+    <t>PN1_OFF_CMD</t>
+  </si>
+  <si>
+    <t>PN1_IU_ON_CMD</t>
+  </si>
+  <si>
+    <t>PN1_IU_OFF_CMD</t>
+  </si>
+  <si>
+    <t>PN1_Reset</t>
+  </si>
+  <si>
+    <t>PN2_ON_CMD</t>
+  </si>
+  <si>
+    <t>PN2_OFF_CMD</t>
+  </si>
+  <si>
+    <t>PN2_IU_ON_CMD</t>
+  </si>
+  <si>
+    <t>PN2_IU_OFF_CMD</t>
+  </si>
+  <si>
+    <t>PN2_Reset</t>
+  </si>
+  <si>
+    <t>HVDC_ON_CMD</t>
+  </si>
+  <si>
+    <t>HVDC_OFF_CMD</t>
+  </si>
+  <si>
+    <t>HVDC_IU_ON_CMD</t>
+  </si>
+  <si>
+    <t>HVDC_IU_OFF_CMD</t>
+  </si>
+  <si>
+    <t>DC_linkup_CMD</t>
+  </si>
+  <si>
+    <t>DC_unlink_CMD</t>
+  </si>
+  <si>
+    <t>HVDC_Reset</t>
+  </si>
+  <si>
+    <t>ASU_mode_cmd</t>
+  </si>
+  <si>
+    <t>KUB_mode_cmd</t>
+  </si>
+  <si>
+    <t>Допустимый тип</t>
+  </si>
+  <si>
+    <t>Perm2remote</t>
+  </si>
+  <si>
+    <t>Local mode cmd</t>
+  </si>
+  <si>
+    <t>Manual mode cmd</t>
+  </si>
+  <si>
+    <t>Auto mode cmd</t>
+  </si>
+  <si>
+    <t>ASU Remote mode CMD</t>
+  </si>
+  <si>
+    <t>Qref_PN1</t>
+  </si>
+  <si>
+    <t>Qref_PN2</t>
+  </si>
+  <si>
+    <t>Usref_PN1</t>
+  </si>
+  <si>
+    <t>Pref</t>
+  </si>
+  <si>
+    <t>HMI Usref_PN1 update</t>
+  </si>
+  <si>
+    <t>HMI_Usref_PN2 update</t>
+  </si>
+  <si>
+    <t>HMI Qref_PN1 update</t>
+  </si>
+  <si>
+    <t>HMI Qref_PN2 update</t>
+  </si>
+  <si>
+    <t>HMI Pref update</t>
+  </si>
+  <si>
+    <t>ASU Qref_PN1 update</t>
+  </si>
+  <si>
+    <t>ASU Qref_PN2 update</t>
+  </si>
+  <si>
+    <t>ASU Usref_PN1 update</t>
+  </si>
+  <si>
+    <t>ASU Usref_PN2 update</t>
+  </si>
+  <si>
+    <t>ASU Pref update</t>
+  </si>
+  <si>
+    <t>KUB Qref_PN1 update</t>
+  </si>
+  <si>
+    <t>KUB Qref_PN2 update</t>
+  </si>
+  <si>
+    <t>KUB Usref_PN1 update</t>
+  </si>
+  <si>
+    <t>KUB Usref_PN2 update</t>
+  </si>
+  <si>
+    <t>KUB Pref update</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Q1_on_mcmd</t>
+  </si>
+  <si>
+    <t>Q1_off_mcmd</t>
+  </si>
+  <si>
+    <t>Q3_on_mcmd</t>
+  </si>
+  <si>
+    <t>Q3_off_mcmd</t>
+  </si>
+  <si>
+    <t>QGU_on_mcmd</t>
+  </si>
+  <si>
+    <t>QSG_on_mcmd</t>
+  </si>
+  <si>
+    <t>QSG_off_mcmd</t>
+  </si>
+  <si>
+    <t>QS3_on_mcmd</t>
+  </si>
+  <si>
+    <t>QS3_off_mcmd</t>
+  </si>
+  <si>
+    <t>Work permission</t>
+  </si>
+  <si>
+    <t>Manual Reset</t>
+  </si>
+  <si>
+    <t>Auto_mode</t>
+  </si>
+  <si>
+    <t>Local_Mode</t>
+  </si>
+  <si>
+    <t>ASU_Mode</t>
+  </si>
+  <si>
+    <t>HVDC_RDY</t>
+  </si>
+  <si>
+    <t>PN1_RDY</t>
+  </si>
+  <si>
+    <t>PN2_RDY</t>
+  </si>
+  <si>
+    <t>PN1_ON_ack</t>
+  </si>
+  <si>
+    <t>PN1_OFF_ack</t>
+  </si>
+  <si>
+    <t>PN2_ON_ack</t>
+  </si>
+  <si>
+    <t>PN2_OFF_ack</t>
+  </si>
+  <si>
+    <t>DC_link_ack</t>
+  </si>
+  <si>
+    <t>DC_unlink_ack</t>
+  </si>
+  <si>
+    <t>HVDC_ON_ack</t>
+  </si>
+  <si>
+    <t>HVDC_OFF_ack</t>
+  </si>
+  <si>
+    <t>PN1_Start</t>
+  </si>
+  <si>
+    <t>PN2_Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN1 QSG ON CMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN1 QSG OFF CMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN1 QS3 ON CMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN1 QS3 OFF CMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN2 QSG ON CMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN2 QSG OFF CMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN2 QS3 ON CMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN2 QS3 OFF CMD </t>
+  </si>
+  <si>
+    <t>PN1 ON CMD</t>
+  </si>
+  <si>
+    <t>PN1 OFF CMD</t>
+  </si>
+  <si>
+    <t>PN1 dschrg CMD</t>
+  </si>
+  <si>
+    <t>PN2 ON CMD</t>
+  </si>
+  <si>
+    <t>PN2 OFF CMD</t>
+  </si>
+  <si>
+    <t>PN2 dschrg CMD</t>
+  </si>
+  <si>
+    <t>DC Link OFF Init ACMD</t>
+  </si>
+  <si>
+    <t>PN1 OFF Init ACMD</t>
+  </si>
+  <si>
+    <t>PN2 OFF Init ACMD</t>
+  </si>
+  <si>
+    <t>PN1 Start</t>
+  </si>
+  <si>
+    <t>PN2 Start</t>
+  </si>
+  <si>
+    <t>PN1 flt imp off</t>
+  </si>
+  <si>
+    <t>PN2 flt imp off</t>
+  </si>
+  <si>
+    <t>PN1 Start APV</t>
+  </si>
+  <si>
+    <t>PN1 foult APV</t>
+  </si>
+  <si>
+    <t>PN2 Start APV</t>
+  </si>
+  <si>
+    <t>PN2 foult APV</t>
+  </si>
+  <si>
+    <t>PN1 foult with APV</t>
+  </si>
+  <si>
+    <t>PN1 foult wo APV</t>
+  </si>
+  <si>
+    <t>PN2 foult with APV</t>
+  </si>
+  <si>
+    <t>PN2 foult wo APV</t>
+  </si>
+  <si>
+    <t>PN1 all readys</t>
+  </si>
+  <si>
+    <t>PN2 all readys</t>
+  </si>
+  <si>
+    <t>HVDC RDY</t>
+  </si>
+  <si>
+    <t>PN1 RDY</t>
+  </si>
+  <si>
+    <t>PN2 RDY</t>
+  </si>
+  <si>
+    <t>PN1 ON ack</t>
+  </si>
+  <si>
+    <t>PN1 OFF ack</t>
+  </si>
+  <si>
+    <t>PN2 ON ack</t>
+  </si>
+  <si>
+    <t>PN2 OFF ack</t>
+  </si>
+  <si>
+    <t>DC linkup ack</t>
+  </si>
+  <si>
+    <t>DC unlink ack</t>
+  </si>
+  <si>
+    <t>HVDC ON ack</t>
+  </si>
+  <si>
+    <t>HVDC OFF ack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q PN1 on cmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q PN1off cmd </t>
+  </si>
+  <si>
+    <t>Q Rsh1 on cmd</t>
+  </si>
+  <si>
+    <t>Q Rsh1off cmd</t>
+  </si>
+  <si>
+    <t>Q discharge1 cmd</t>
+  </si>
+  <si>
+    <t>DC L1 on cmd</t>
+  </si>
+  <si>
+    <t>DC L1 off cmd</t>
+  </si>
+  <si>
+    <t>DC G1 on cmd</t>
+  </si>
+  <si>
+    <t>DC G1 off cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q PN2 on cmd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q PN2off cmd </t>
+  </si>
+  <si>
+    <t>Q Rsh2 on cmd</t>
+  </si>
+  <si>
+    <t>Q Rsh2off cmd</t>
+  </si>
+  <si>
+    <t>Q discharge2 cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC L2 on cmd </t>
+  </si>
+  <si>
+    <t>DC L2 off cmd</t>
+  </si>
+  <si>
+    <t>DC G2 on cmd</t>
+  </si>
+  <si>
+    <t>DC G2 off cmd</t>
+  </si>
+  <si>
+    <t>Start PN1</t>
+  </si>
+  <si>
+    <t>Start PN2</t>
+  </si>
+  <si>
+    <t>Work Permission</t>
+  </si>
+  <si>
+    <t>Q1 bk on PN1</t>
+  </si>
+  <si>
+    <t>Q1 bk off PN1</t>
+  </si>
+  <si>
+    <t>Q3 bk on PN1</t>
+  </si>
+  <si>
+    <t>Q3 bk off PN1</t>
+  </si>
+  <si>
+    <t>Dis bk on PN1</t>
+  </si>
+  <si>
+    <t>Dis bk off PN1</t>
+  </si>
+  <si>
+    <t>L1 bk on PN1</t>
+  </si>
+  <si>
+    <t>L1 bk off PN1</t>
+  </si>
+  <si>
+    <t>G1 bk on PN1</t>
+  </si>
+  <si>
+    <t>G1 bk off PN1</t>
+  </si>
+  <si>
+    <t>Um1_220</t>
+  </si>
+  <si>
+    <t>Um1_38</t>
+  </si>
+  <si>
+    <t>Um2_38</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Iq</t>
+  </si>
+  <si>
+    <t>Ia_dc</t>
+  </si>
+  <si>
+    <t>Ib_dc</t>
+  </si>
+  <si>
+    <t>Ic_dc</t>
+  </si>
+  <si>
+    <t>Qreal</t>
+  </si>
+  <si>
+    <t>Udc_p</t>
+  </si>
+  <si>
+    <t>Udc_m</t>
+  </si>
+  <si>
+    <t>dfi_dt</t>
+  </si>
+  <si>
+    <t>Preal</t>
+  </si>
+  <si>
+    <t>Usref_PN2</t>
+  </si>
+  <si>
+    <t>Real from ARM 99</t>
+  </si>
+  <si>
+    <t>Real from ARM 100</t>
+  </si>
+  <si>
+    <t>Arg PN1</t>
+  </si>
+  <si>
+    <t>Arg PN2</t>
+  </si>
+  <si>
+    <t>General N State PN1</t>
+  </si>
+  <si>
+    <t>General N State PN2</t>
+  </si>
+  <si>
+    <t>Int fom PCI 40</t>
+  </si>
+  <si>
+    <t>Int fom PCI 41</t>
+  </si>
+  <si>
+    <t>Int fom PCI 42</t>
+  </si>
+  <si>
+    <t>Int fom PCI 43</t>
+  </si>
+  <si>
+    <t>Int fom PCI 44</t>
+  </si>
+  <si>
+    <t>Int fom PCI 45</t>
+  </si>
+  <si>
+    <t>HMI Qref_PN1</t>
+  </si>
+  <si>
+    <t>HMIQref_PN2</t>
+  </si>
+  <si>
+    <t>HMI Usref_PN1</t>
+  </si>
+  <si>
+    <t>HMI Usref_PN2</t>
+  </si>
+  <si>
+    <t>HMI Pref</t>
+  </si>
+  <si>
+    <t>ASU Qref_PN1</t>
+  </si>
+  <si>
+    <t>ASUQref_PN2</t>
+  </si>
+  <si>
+    <t>ASU Usref_PN1</t>
+  </si>
+  <si>
+    <t>ASU Usref_PN2</t>
+  </si>
+  <si>
+    <t>ASU Pref</t>
+  </si>
+  <si>
+    <t>KUB Qref_PN1</t>
+  </si>
+  <si>
+    <t>KUB Qref_PN2</t>
+  </si>
+  <si>
+    <t>KUB Usref_PN1</t>
+  </si>
+  <si>
+    <t>KUB Usref_PN2</t>
+  </si>
+  <si>
+    <t>KUB Pref</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>Q1 bk on PN2</t>
+  </si>
+  <si>
+    <t>Q1 bk off PN2</t>
+  </si>
+  <si>
+    <t>Q3 bk on PN2</t>
+  </si>
+  <si>
+    <t>Q3 bk off PN2</t>
+  </si>
+  <si>
+    <t>Dis bk on PN2</t>
+  </si>
+  <si>
+    <t>Dis bk off PN2</t>
+  </si>
+  <si>
+    <t>L1 bk on PN2</t>
+  </si>
+  <si>
+    <t>L1 bk off PN2</t>
+  </si>
+  <si>
+    <t>G1 bk on PN2</t>
+  </si>
+  <si>
+    <t>G1 bk off PN2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,13 +941,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -362,10 +985,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -377,11 +1002,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -399,6 +1063,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -438,7 +1142,17 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -454,11 +1168,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -848,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2990869A-F271-469D-A071-643345BF0D20}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,26 +1586,29 @@
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="30.42578125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -904,7 +1631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -924,8 +1651,11 @@
         <f>'MB Header'!B5</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>1</v>
@@ -946,10 +1676,13 @@
         <f>F3+1</f>
         <v>1001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A7" si="0">A4+1</f>
+        <f t="shared" ref="A5:A64" si="0">A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -965,11 +1698,17 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F7" si="1">F4+1</f>
+        <f t="shared" ref="F5:F64" si="1">F4+1</f>
         <v>1002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -990,8 +1729,14 @@
         <f t="shared" si="1"/>
         <v>1003</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1012,9 +1757,1531 @@
         <f t="shared" si="1"/>
         <v>1004</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>822</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>1005</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>822</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>1006</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>822</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>1007</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>822</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>822</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>1009</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>822</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>822</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>1011</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>822</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>822</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>822</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>822</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>822</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>822</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>822</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>822</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>1019</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>822</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3">
+        <v>822</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>1021</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3">
+        <v>822</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>1022</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3">
+        <v>822</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>1023</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3">
+        <v>822</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3">
+        <v>822</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>1025</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>68</v>
+      </c>
+      <c r="D29" s="3">
+        <v>822</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>1026</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>69</v>
+      </c>
+      <c r="D30" s="3">
+        <v>822</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>1027</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>70</v>
+      </c>
+      <c r="D31" s="3">
+        <v>822</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>1028</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3">
+        <v>822</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3">
+        <v>822</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3">
+        <v>822</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>1031</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3">
+        <v>822</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>1032</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3">
+        <v>822</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>1033</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>76</v>
+      </c>
+      <c r="D37" s="3">
+        <v>822</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>1034</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>77</v>
+      </c>
+      <c r="D38" s="3">
+        <v>822</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>1035</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>78</v>
+      </c>
+      <c r="D39" s="3">
+        <v>822</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>79</v>
+      </c>
+      <c r="D40" s="3">
+        <v>822</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3">
+        <v>822</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>81</v>
+      </c>
+      <c r="D42" s="3">
+        <v>822</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>82</v>
+      </c>
+      <c r="D43" s="3">
+        <v>822</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>83</v>
+      </c>
+      <c r="D44" s="3">
+        <v>822</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>1041</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3">
+        <v>822</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3">
+        <v>822</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3">
+        <v>822</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>93</v>
+      </c>
+      <c r="D48" s="3">
+        <v>822</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>94</v>
+      </c>
+      <c r="D49" s="3">
+        <v>822</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>95</v>
+      </c>
+      <c r="D50" s="3">
+        <v>822</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>96</v>
+      </c>
+      <c r="D51" s="3">
+        <v>822</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
+        <v>1048</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>97</v>
+      </c>
+      <c r="D52" s="3">
+        <v>822</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
+        <v>1049</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>98</v>
+      </c>
+      <c r="D53" s="3">
+        <v>822</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>99</v>
+      </c>
+      <c r="D54" s="3">
+        <v>822</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="1"/>
+        <v>1051</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>100</v>
+      </c>
+      <c r="D55" s="3">
+        <v>822</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="1"/>
+        <v>1052</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>101</v>
+      </c>
+      <c r="D56" s="3">
+        <v>822</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="1"/>
+        <v>1053</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>102</v>
+      </c>
+      <c r="D57" s="3">
+        <v>822</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="1"/>
+        <v>1054</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>103</v>
+      </c>
+      <c r="D58" s="3">
+        <v>822</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="1"/>
+        <v>1055</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>104</v>
+      </c>
+      <c r="D59" s="3">
+        <v>822</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>105</v>
+      </c>
+      <c r="D60" s="3">
+        <v>822</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="1"/>
+        <v>1057</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>106</v>
+      </c>
+      <c r="D61" s="3">
+        <v>822</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="1"/>
+        <v>1058</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>107</v>
+      </c>
+      <c r="D62" s="3">
+        <v>822</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="1"/>
+        <v>1059</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>108</v>
+      </c>
+      <c r="D63" s="3">
+        <v>822</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>109</v>
+      </c>
+      <c r="D64" s="3">
+        <v>822</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="1"/>
+        <v>1061</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="B3:B64">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{188B1D5C-4347-44C8-9260-EEAFCE554129}">
+      <formula1>F3</formula1>
+      <formula2>F3</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1022,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5382BA0-6CFC-4B6E-ABD9-6BD9BED51942}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="C95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +3307,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +3321,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +3344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1097,8 +3364,11 @@
         <f>'MB Header'!B6</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1118,8 +3388,11 @@
         <f>F3+1</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1136,11 +3409,14 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F7" si="0">F4+1</f>
+        <f t="shared" ref="F5:F68" si="0">F4+1</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1160,8 +3436,11 @@
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1181,19 +3460,3049 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3">
+        <v>32</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>34</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>39</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3">
+        <v>46</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>47</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3">
+        <v>50</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3">
+        <v>51</v>
+      </c>
+      <c r="D54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3">
+        <v>52</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>53</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3">
+        <v>55</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>56</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>57</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3">
+        <v>58</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3">
+        <v>59</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>60</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3">
+        <v>61</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="G64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3">
+        <v>62</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="G65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>63</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="G66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3">
+        <v>64</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="G67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3">
+        <v>65</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="G68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3">
+        <v>66</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" ref="F69:F129" si="1">F68+1</f>
+        <v>2066</v>
+      </c>
+      <c r="G69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3">
+        <v>67</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="1"/>
+        <v>2067</v>
+      </c>
+      <c r="G70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>68</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="1"/>
+        <v>2068</v>
+      </c>
+      <c r="G71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5</v>
+      </c>
+      <c r="C72" s="3">
+        <v>69</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="1"/>
+        <v>2069</v>
+      </c>
+      <c r="G72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3">
+        <v>70</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+      <c r="G73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>71</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="1"/>
+        <v>2071</v>
+      </c>
+      <c r="G74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3">
+        <v>72</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="1"/>
+        <v>2072</v>
+      </c>
+      <c r="G75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3">
+        <v>73</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="1"/>
+        <v>2073</v>
+      </c>
+      <c r="G76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3">
+        <v>74</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="1"/>
+        <v>2074</v>
+      </c>
+      <c r="G77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5</v>
+      </c>
+      <c r="C78" s="3">
+        <v>75</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="1"/>
+        <v>2075</v>
+      </c>
+      <c r="G78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5</v>
+      </c>
+      <c r="C79" s="3">
+        <v>76</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+      <c r="G79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3">
+        <v>77</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="1"/>
+        <v>2077</v>
+      </c>
+      <c r="G80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3">
+        <v>78</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="1"/>
+        <v>2078</v>
+      </c>
+      <c r="G81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3">
+        <v>79</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="1"/>
+        <v>2079</v>
+      </c>
+      <c r="G82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3">
+        <v>80</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="G83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3">
+        <v>81</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="G84" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3">
+        <v>82</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="1"/>
+        <v>2082</v>
+      </c>
+      <c r="G85" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3">
+        <v>83</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="1"/>
+        <v>2083</v>
+      </c>
+      <c r="G86" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3">
+        <v>84</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="1"/>
+        <v>2084</v>
+      </c>
+      <c r="G87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3">
+        <v>85</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="1"/>
+        <v>2085</v>
+      </c>
+      <c r="G88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3">
+        <v>86</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="1"/>
+        <v>2086</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3">
+        <v>87</v>
+      </c>
+      <c r="D90" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="1"/>
+        <v>2087</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3">
+        <v>88</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="1"/>
+        <v>2088</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H91" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3">
+        <v>89</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="1"/>
+        <v>2089</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5</v>
+      </c>
+      <c r="C93" s="3">
+        <v>90</v>
+      </c>
+      <c r="D93" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="1"/>
+        <v>2090</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3">
+        <v>91</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="1"/>
+        <v>2091</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3">
+        <v>5</v>
+      </c>
+      <c r="C95" s="3">
+        <v>92</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="1"/>
+        <v>2092</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H95" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3">
+        <v>93</v>
+      </c>
+      <c r="D96" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="1"/>
+        <v>2093</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5</v>
+      </c>
+      <c r="C97" s="3">
+        <v>94</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="1"/>
+        <v>2094</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H97" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3">
+        <v>95</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="1"/>
+        <v>2095</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H98" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5</v>
+      </c>
+      <c r="C99" s="3">
+        <v>96</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="1"/>
+        <v>2096</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H99" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>97</v>
+      </c>
+      <c r="D100" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="1"/>
+        <v>2097</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H100" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5</v>
+      </c>
+      <c r="C101" s="3">
+        <v>98</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="1"/>
+        <v>2098</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H101" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3">
+        <v>99</v>
+      </c>
+      <c r="D102" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="1"/>
+        <v>2099</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H102" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5</v>
+      </c>
+      <c r="C103" s="3">
+        <v>100</v>
+      </c>
+      <c r="D103" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H103" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5</v>
+      </c>
+      <c r="C104" s="3">
+        <v>101</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="1"/>
+        <v>2101</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H104" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5</v>
+      </c>
+      <c r="C105" s="3">
+        <v>102</v>
+      </c>
+      <c r="D105" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="1"/>
+        <v>2102</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>103</v>
+      </c>
+      <c r="D106" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="1"/>
+        <v>2103</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H106" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5</v>
+      </c>
+      <c r="C107" s="3">
+        <v>104</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="1"/>
+        <v>2104</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H107" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3">
+        <v>105</v>
+      </c>
+      <c r="D108" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="1"/>
+        <v>2105</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H108" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
+        <v>5</v>
+      </c>
+      <c r="C109" s="3">
+        <v>106</v>
+      </c>
+      <c r="D109" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="1"/>
+        <v>2106</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5</v>
+      </c>
+      <c r="C110" s="3">
+        <v>107</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="1"/>
+        <v>2107</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5</v>
+      </c>
+      <c r="C111" s="3">
+        <v>108</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="1"/>
+        <v>2108</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5</v>
+      </c>
+      <c r="C112" s="3">
+        <v>109</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="1"/>
+        <v>2109</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3">
+        <v>5</v>
+      </c>
+      <c r="C113" s="3">
+        <v>110</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" si="1"/>
+        <v>2110</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5</v>
+      </c>
+      <c r="C114" s="3">
+        <v>111</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="1"/>
+        <v>2111</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3">
+        <v>5</v>
+      </c>
+      <c r="C115" s="3">
+        <v>112</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="1"/>
+        <v>2112</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5</v>
+      </c>
+      <c r="C116" s="3">
+        <v>113</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="1"/>
+        <v>2113</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5</v>
+      </c>
+      <c r="C117" s="3">
+        <v>114</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" si="1"/>
+        <v>2114</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3">
+        <v>5</v>
+      </c>
+      <c r="C118" s="3">
+        <v>115</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="1"/>
+        <v>2115</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3">
+        <v>5</v>
+      </c>
+      <c r="C119" s="3">
+        <v>116</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" si="1"/>
+        <v>2116</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3">
+        <v>117</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="1"/>
+        <v>2117</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3">
+        <v>5</v>
+      </c>
+      <c r="C121" s="3">
+        <v>118</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="1"/>
+        <v>2118</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="3">
+        <v>5</v>
+      </c>
+      <c r="C122" s="3">
+        <v>119</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="1"/>
+        <v>2119</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3">
+        <v>5</v>
+      </c>
+      <c r="C123" s="3">
+        <v>120</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="1"/>
+        <v>2120</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="B124" s="3">
+        <v>5</v>
+      </c>
+      <c r="C124" s="3">
+        <v>121</v>
+      </c>
+      <c r="D124" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="1"/>
+        <v>2121</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="3">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3">
+        <v>122</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="1"/>
+        <v>2122</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3">
+        <v>123</v>
+      </c>
+      <c r="D126" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="1"/>
+        <v>2123</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3">
+        <v>5</v>
+      </c>
+      <c r="C127" s="3">
+        <v>124</v>
+      </c>
+      <c r="D127" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="1"/>
+        <v>2124</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+      <c r="B128" s="3">
+        <v>5</v>
+      </c>
+      <c r="C128" s="3">
+        <v>125</v>
+      </c>
+      <c r="D128" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" si="1"/>
+        <v>2125</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="3">
+        <v>5</v>
+      </c>
+      <c r="C129" s="3">
+        <v>126</v>
+      </c>
+      <c r="D129" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="1"/>
+        <v>2126</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B71D96-FF85-4A69-80A1-3BC76226763F}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +6517,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1251,7 +6560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1271,8 +6580,14 @@
         <f>'MB Header'!B7</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1289,11 +6604,17 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f>F3+1</f>
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F3+2</f>
+        <v>3002</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1310,11 +6631,17 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F7" si="0">F4+1</f>
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F5:F7" si="0">F4+2</f>
+        <v>3004</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1332,15 +6659,21 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3006</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -1353,16 +6686,286 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>3004</v>
+        <v>3008</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>822</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F17" si="1">F7+2</f>
+        <v>3010</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>822</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>3012</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>822</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>3014</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>822</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>3016</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>822</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>3018</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>822</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>3020</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>822</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>3022</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>822</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>3024</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>822</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>3026</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>822</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>3028</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="B3:B8">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B17">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1377,10 +6980,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8185289-02D7-44EF-A320-6BFC1CAE68BE}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,10 +7012,10 @@
         <v>89</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1458,6 +7061,9 @@
         <f>'MB Header'!B8</f>
         <v>4000</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1479,6 +7085,9 @@
         <f>F3+2</f>
         <v>4002</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1497,8 +7106,11 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F28" si="0">F4+2</f>
+        <f t="shared" ref="F5:F45" si="0">F4+2</f>
         <v>4004</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1521,6 +7133,9 @@
         <f t="shared" si="0"/>
         <v>4006</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1542,6 +7157,9 @@
         <f t="shared" si="0"/>
         <v>4008</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1562,6 +7180,9 @@
       <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>4010</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1584,6 +7205,9 @@
         <f t="shared" si="0"/>
         <v>4012</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1605,6 +7229,9 @@
         <f t="shared" si="0"/>
         <v>4014</v>
       </c>
+      <c r="G10" s="5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1626,6 +7253,9 @@
         <f t="shared" si="0"/>
         <v>4016</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1647,6 +7277,9 @@
         <f t="shared" si="0"/>
         <v>4018</v>
       </c>
+      <c r="G12" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1668,6 +7301,9 @@
         <f t="shared" si="0"/>
         <v>4020</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1689,6 +7325,9 @@
         <f t="shared" si="0"/>
         <v>4022</v>
       </c>
+      <c r="G14" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1710,6 +7349,9 @@
         <f t="shared" si="0"/>
         <v>4024</v>
       </c>
+      <c r="G15" s="5" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1731,8 +7373,11 @@
         <f t="shared" si="0"/>
         <v>4026</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1752,8 +7397,11 @@
         <f t="shared" si="0"/>
         <v>4028</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1773,8 +7421,11 @@
         <f t="shared" si="0"/>
         <v>4030</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1794,8 +7445,11 @@
         <f t="shared" si="0"/>
         <v>4032</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1815,8 +7469,11 @@
         <f t="shared" si="0"/>
         <v>4034</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1836,8 +7493,11 @@
         <f t="shared" si="0"/>
         <v>4036</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1857,8 +7517,11 @@
         <f t="shared" si="0"/>
         <v>4038</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1878,8 +7541,11 @@
         <f t="shared" si="0"/>
         <v>4040</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1899,13 +7565,16 @@
         <f t="shared" si="0"/>
         <v>4042</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>22</v>
@@ -1920,13 +7589,16 @@
         <f t="shared" si="0"/>
         <v>4044</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>23</v>
@@ -1941,13 +7613,16 @@
         <f t="shared" si="0"/>
         <v>4046</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>24</v>
@@ -1962,13 +7637,16 @@
         <f t="shared" si="0"/>
         <v>4048</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>25</v>
@@ -1983,14 +7661,425 @@
         <f t="shared" si="0"/>
         <v>4050</v>
       </c>
+      <c r="G28" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>4052</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>4054</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>4056</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>4058</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>4060</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>4062</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>32</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>4064</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>4066</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>4068</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>4070</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>4072</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>32</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>4074</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>33</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>4076</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>34</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>4078</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>35</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>4080</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>4082</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>4084</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="B3:B35">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B45">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2137,10 +8226,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3971252-C434-4DA3-ABAF-B76B8F407E25}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,10 +8239,11 @@
     <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
     <col min="4" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="18.140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2171,8 +8261,11 @@
       <c r="G1" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2195,7 +8288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2215,7 +8308,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2235,7 +8328,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2255,7 +8348,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2275,7 +8368,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2298,18 +8391,24 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B3:B7">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{FBF04453-E9A7-4A76-9C03-54E6D3D3D5B2}">
-      <formula1>$F$1:$G$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{C5DF58C6-B1D8-42B2-B8F8-62EDE0332C16}">
+      <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2319,10 +8418,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200238D5-5EF2-4301-9AA9-4860E8983EB4}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,10 +8431,11 @@
     <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
     <col min="4" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="14.140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,13 +8448,16 @@
         <v>90</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2377,12 +8480,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -2397,12 +8500,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2417,12 +8520,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -2437,12 +8540,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -2457,12 +8560,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -2479,19 +8582,25 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B3:B7">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{0EECDD1A-E2A8-479A-8CD1-6C2A53664F6C}">
-      <formula1>$F$1:$G$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{3BE632AA-6BDB-4CD8-A468-A9581A16D47E}">
+      <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2780,7 +8889,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,8 +8938,8 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
+      <c r="C4" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3657,7 +9766,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,10 +9806,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41DC8E9-A671-4F1A-909E-507431CCD192}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,37 +9857,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>124</v>
-      </c>
-      <c r="E4" s="3">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3788,7 +9879,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,7 +9908,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3845,17 +9936,16 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12718FD-2571-438D-BD53-87CA3B720985}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,7 +9960,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3879,10 +9969,20 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3902,12 +10002,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -3916,18 +10016,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -3936,18 +10036,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -3956,18 +10056,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -3976,18 +10076,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -3996,15 +10096,375 @@
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B24">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{2BF853C6-731A-4233-B250-FEBB7771367C}">
+      <formula1>$F$1:$H$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
